--- a/tests/testthat/STUDY002_TE.xlsx
+++ b/tests/testthat/STUDY002_TE.xlsx
@@ -6,13 +6,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TE" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -20,12 +21,138 @@
     <t xml:space="preserve">DOMAIN</t>
   </si>
   <si>
+    <t xml:space="preserve">ARMCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAETORD</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETCD</t>
   </si>
   <si>
     <t xml:space="preserve">ELEMENT</t>
   </si>
   <si>
+    <t xml:space="preserve">TABRANCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATRANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDY002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLLOW-UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence BCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence CAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET21</t>
+  </si>
+  <si>
     <t xml:space="preserve">TESTRL</t>
   </si>
   <si>
@@ -35,18 +162,9 @@
     <t xml:space="preserve">TEDUR</t>
   </si>
   <si>
-    <t xml:space="preserve">STUDY002</t>
-  </si>
-  <si>
     <t xml:space="preserve">TE</t>
   </si>
   <si>
-    <t xml:space="preserve">ET1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCREENING</t>
-  </si>
-  <si>
     <t xml:space="preserve">Informed consent</t>
   </si>
   <si>
@@ -56,88 +174,40 @@
     <t xml:space="preserve">P7D</t>
   </si>
   <si>
-    <t xml:space="preserve">ET2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First dose of study drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of treatment period</t>
+    <t xml:space="preserve">First dose A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of A</t>
   </si>
   <si>
     <t xml:space="preserve">P14D</t>
   </si>
   <si>
-    <t xml:space="preserve">ET3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT B</t>
+    <t xml:space="preserve">Start washout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of washout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First dose B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First dose C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">P21D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P28D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOLLOW-UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start of follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P35D</t>
   </si>
 </sst>
 </file>
@@ -498,59 +568,693 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -559,197 +1263,82 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
